--- a/REGULAR/DAEZ, ANGELO HUBERTO.xlsx
+++ b/REGULAR/DAEZ, ANGELO HUBERTO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D03D56E-3588-4CD2-B556-916CA98503ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -243,7 +242,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -920,7 +919,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -937,26 +936,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K280" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K280" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K280" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K280"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1263,34 +1262,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A226" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="D224" sqref="D224:D237"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A226" activePane="bottomLeft"/>
+      <selection activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1311,7 +1310,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1329,7 +1328,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1349,7 +1348,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1357,7 +1356,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1370,7 +1369,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -1387,7 +1386,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1431,7 +1430,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>109.084</v>
+        <v>97.66700000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1441,12 +1440,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>275.084</v>
+        <v>258.66700000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>50</v>
       </c>
@@ -1461,7 +1460,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>38901</v>
       </c>
@@ -1480,7 +1479,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>38930</v>
       </c>
@@ -1500,7 +1499,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>38961</v>
       </c>
@@ -1520,7 +1519,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>38991</v>
       </c>
@@ -1540,7 +1539,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>39022</v>
       </c>
@@ -1560,7 +1559,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>39052</v>
       </c>
@@ -1580,7 +1579,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>51</v>
       </c>
@@ -1598,7 +1597,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>39083</v>
       </c>
@@ -1618,7 +1617,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>39114</v>
       </c>
@@ -1638,7 +1637,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>39142</v>
       </c>
@@ -1658,7 +1657,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>39173</v>
       </c>
@@ -1678,7 +1677,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>39203</v>
       </c>
@@ -1698,7 +1697,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>39234</v>
       </c>
@@ -1718,7 +1717,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>39264</v>
       </c>
@@ -1738,7 +1737,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>39295</v>
       </c>
@@ -1758,7 +1757,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>39326</v>
       </c>
@@ -1778,7 +1777,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>39356</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>39387</v>
       </c>
@@ -1824,7 +1823,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>39417</v>
       </c>
@@ -1844,7 +1843,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>52</v>
       </c>
@@ -1862,7 +1861,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>39448</v>
       </c>
@@ -1882,7 +1881,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>39479</v>
       </c>
@@ -1902,7 +1901,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>39508</v>
       </c>
@@ -1922,7 +1921,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>39539</v>
       </c>
@@ -1942,7 +1941,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>39569</v>
       </c>
@@ -1962,7 +1961,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>39600</v>
       </c>
@@ -1982,7 +1981,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>39630</v>
       </c>
@@ -2002,7 +2001,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>39661</v>
       </c>
@@ -2022,7 +2021,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>39692</v>
       </c>
@@ -2042,7 +2041,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>39722</v>
       </c>
@@ -2062,7 +2061,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>39753</v>
       </c>
@@ -2082,7 +2081,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>39783</v>
       </c>
@@ -2106,7 +2105,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>53</v>
       </c>
@@ -2124,7 +2123,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>39814</v>
       </c>
@@ -2144,7 +2143,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>39845</v>
       </c>
@@ -2164,7 +2163,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>39873</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>39904</v>
       </c>
@@ -2210,7 +2209,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>39934</v>
       </c>
@@ -2230,7 +2229,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>39965</v>
       </c>
@@ -2250,7 +2249,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>39995</v>
       </c>
@@ -2270,7 +2269,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>40026</v>
       </c>
@@ -2290,7 +2289,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>40057</v>
       </c>
@@ -2310,7 +2309,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>40087</v>
       </c>
@@ -2330,7 +2329,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>40118</v>
       </c>
@@ -2350,7 +2349,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>40148</v>
       </c>
@@ -2370,7 +2369,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>54</v>
       </c>
@@ -2388,7 +2387,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>40179</v>
       </c>
@@ -2408,7 +2407,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>40210</v>
       </c>
@@ -2428,7 +2427,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>40238</v>
       </c>
@@ -2448,7 +2447,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>40269</v>
       </c>
@@ -2468,7 +2467,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>40299</v>
       </c>
@@ -2488,7 +2487,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>40330</v>
       </c>
@@ -2508,7 +2507,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>40360</v>
       </c>
@@ -2528,7 +2527,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>40391</v>
       </c>
@@ -2548,7 +2547,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>40422</v>
       </c>
@@ -2568,7 +2567,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>40452</v>
       </c>
@@ -2588,7 +2587,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>40483</v>
       </c>
@@ -2608,7 +2607,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>40513</v>
       </c>
@@ -2632,7 +2631,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>59</v>
       </c>
@@ -2650,7 +2649,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>40544</v>
       </c>
@@ -2670,7 +2669,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>40575</v>
       </c>
@@ -2690,7 +2689,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>40603</v>
       </c>
@@ -2710,7 +2709,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>40634</v>
       </c>
@@ -2730,7 +2729,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>40664</v>
       </c>
@@ -2750,7 +2749,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>40695</v>
       </c>
@@ -2770,7 +2769,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>40725</v>
       </c>
@@ -2790,7 +2789,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>40756</v>
       </c>
@@ -2810,7 +2809,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>40787</v>
       </c>
@@ -2830,7 +2829,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>40817</v>
       </c>
@@ -2850,7 +2849,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>40848</v>
       </c>
@@ -2870,7 +2869,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>40878</v>
       </c>
@@ -2894,7 +2893,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>60</v>
       </c>
@@ -2912,7 +2911,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>40909</v>
       </c>
@@ -2932,7 +2931,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>40940</v>
       </c>
@@ -2952,7 +2951,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>40969</v>
       </c>
@@ -2972,7 +2971,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>41000</v>
       </c>
@@ -2992,7 +2991,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>41030</v>
       </c>
@@ -3012,7 +3011,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>41061</v>
       </c>
@@ -3032,7 +3031,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>41091</v>
       </c>
@@ -3052,7 +3051,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>41122</v>
       </c>
@@ -3072,7 +3071,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>41153</v>
       </c>
@@ -3092,7 +3091,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>41183</v>
       </c>
@@ -3112,7 +3111,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>41214</v>
       </c>
@@ -3132,7 +3131,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>41244</v>
       </c>
@@ -3156,7 +3155,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="48" t="s">
         <v>61</v>
       </c>
@@ -3174,7 +3173,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>41275</v>
       </c>
@@ -3194,7 +3193,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>41306</v>
       </c>
@@ -3214,7 +3213,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>41334</v>
       </c>
@@ -3234,7 +3233,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>41365</v>
       </c>
@@ -3254,7 +3253,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>41395</v>
       </c>
@@ -3274,7 +3273,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>41426</v>
       </c>
@@ -3294,7 +3293,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>41456</v>
       </c>
@@ -3314,7 +3313,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>41487</v>
       </c>
@@ -3334,7 +3333,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>41518</v>
       </c>
@@ -3354,7 +3353,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>41548</v>
       </c>
@@ -3374,7 +3373,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>41579</v>
       </c>
@@ -3394,7 +3393,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>41609</v>
       </c>
@@ -3418,7 +3417,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="48" t="s">
         <v>62</v>
       </c>
@@ -3436,7 +3435,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>41640</v>
       </c>
@@ -3456,7 +3455,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>41671</v>
       </c>
@@ -3476,7 +3475,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>41699</v>
       </c>
@@ -3496,7 +3495,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>41730</v>
       </c>
@@ -3516,7 +3515,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>41760</v>
       </c>
@@ -3536,7 +3535,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>41791</v>
       </c>
@@ -3556,7 +3555,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <v>41821</v>
       </c>
@@ -3576,7 +3575,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>41852</v>
       </c>
@@ -3596,7 +3595,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>41883</v>
       </c>
@@ -3616,7 +3615,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>41913</v>
       </c>
@@ -3636,7 +3635,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>41944</v>
       </c>
@@ -3656,7 +3655,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>41974</v>
       </c>
@@ -3680,7 +3679,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="48" t="s">
         <v>63</v>
       </c>
@@ -3698,7 +3697,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>42005</v>
       </c>
@@ -3718,7 +3717,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>42036</v>
       </c>
@@ -3738,7 +3737,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>42064</v>
       </c>
@@ -3758,7 +3757,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>42095</v>
       </c>
@@ -3778,7 +3777,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>42125</v>
       </c>
@@ -3798,7 +3797,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>42156</v>
       </c>
@@ -3818,7 +3817,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>42186</v>
       </c>
@@ -3838,7 +3837,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>42217</v>
       </c>
@@ -3858,7 +3857,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>42248</v>
       </c>
@@ -3878,7 +3877,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>42278</v>
       </c>
@@ -3898,7 +3897,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>42309</v>
       </c>
@@ -3918,7 +3917,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>42339</v>
       </c>
@@ -3942,7 +3941,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="48" t="s">
         <v>64</v>
       </c>
@@ -3960,7 +3959,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>42370</v>
       </c>
@@ -3980,7 +3979,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>42401</v>
       </c>
@@ -4000,7 +3999,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>42430</v>
       </c>
@@ -4020,7 +4019,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>42461</v>
       </c>
@@ -4040,7 +4039,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>42491</v>
       </c>
@@ -4060,7 +4059,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>42522</v>
       </c>
@@ -4080,7 +4079,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>42552</v>
       </c>
@@ -4100,7 +4099,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>42583</v>
       </c>
@@ -4120,7 +4119,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>42614</v>
       </c>
@@ -4140,7 +4139,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>42644</v>
       </c>
@@ -4160,7 +4159,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>42675</v>
       </c>
@@ -4180,7 +4179,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>42705</v>
       </c>
@@ -4204,7 +4203,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="48" t="s">
         <v>65</v>
       </c>
@@ -4222,7 +4221,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>42736</v>
       </c>
@@ -4242,7 +4241,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>42767</v>
       </c>
@@ -4262,7 +4261,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>42795</v>
       </c>
@@ -4282,7 +4281,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>42826</v>
       </c>
@@ -4302,7 +4301,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>42856</v>
       </c>
@@ -4322,7 +4321,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>42887</v>
       </c>
@@ -4342,7 +4341,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>42917</v>
       </c>
@@ -4362,7 +4361,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>42948</v>
       </c>
@@ -4382,7 +4381,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>42979</v>
       </c>
@@ -4402,7 +4401,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>43009</v>
       </c>
@@ -4422,7 +4421,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>43040</v>
       </c>
@@ -4442,7 +4441,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>43070</v>
       </c>
@@ -4466,7 +4465,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="48" t="s">
         <v>43</v>
       </c>
@@ -4484,7 +4483,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>43101</v>
       </c>
@@ -4504,7 +4503,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>43132</v>
       </c>
@@ -4524,7 +4523,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>43160</v>
       </c>
@@ -4544,7 +4543,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>43191</v>
       </c>
@@ -4564,7 +4563,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>43221</v>
       </c>
@@ -4584,7 +4583,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>43252</v>
       </c>
@@ -4604,7 +4603,7 @@
       <c r="J166" s="12"/>
       <c r="K166" s="15"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>43282</v>
       </c>
@@ -4624,7 +4623,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>43313</v>
       </c>
@@ -4644,7 +4643,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>43344</v>
       </c>
@@ -4664,7 +4663,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>43374</v>
       </c>
@@ -4684,7 +4683,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>43405</v>
       </c>
@@ -4704,7 +4703,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>43435</v>
       </c>
@@ -4728,7 +4727,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="48" t="s">
         <v>45</v>
       </c>
@@ -4746,7 +4745,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>43466</v>
       </c>
@@ -4766,7 +4765,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>43497</v>
       </c>
@@ -4786,7 +4785,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>43525</v>
       </c>
@@ -4806,7 +4805,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>43556</v>
       </c>
@@ -4826,7 +4825,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>43586</v>
       </c>
@@ -4846,7 +4845,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>43617</v>
       </c>
@@ -4866,7 +4865,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>43647</v>
       </c>
@@ -4886,7 +4885,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>43678</v>
       </c>
@@ -4906,7 +4905,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>43709</v>
       </c>
@@ -4926,7 +4925,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>43739</v>
       </c>
@@ -4946,7 +4945,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>43770</v>
       </c>
@@ -4966,7 +4965,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>43800</v>
       </c>
@@ -4990,7 +4989,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="48" t="s">
         <v>46</v>
       </c>
@@ -5008,7 +5007,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>43831</v>
       </c>
@@ -5028,7 +5027,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>43862</v>
       </c>
@@ -5048,7 +5047,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>43891</v>
       </c>
@@ -5068,7 +5067,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>43922</v>
       </c>
@@ -5088,7 +5087,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>43952</v>
       </c>
@@ -5108,7 +5107,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>43983</v>
       </c>
@@ -5128,7 +5127,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>44013</v>
       </c>
@@ -5148,7 +5147,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>44044</v>
       </c>
@@ -5168,7 +5167,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>44075</v>
       </c>
@@ -5188,7 +5187,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>44105</v>
       </c>
@@ -5208,7 +5207,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>44136</v>
       </c>
@@ -5228,7 +5227,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>44166</v>
       </c>
@@ -5252,7 +5251,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="48" t="s">
         <v>47</v>
       </c>
@@ -5270,7 +5269,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>44197</v>
       </c>
@@ -5290,7 +5289,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>44228</v>
       </c>
@@ -5310,7 +5309,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>44256</v>
       </c>
@@ -5330,7 +5329,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>44287</v>
       </c>
@@ -5350,7 +5349,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>44317</v>
       </c>
@@ -5370,7 +5369,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>44348</v>
       </c>
@@ -5394,7 +5393,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>44378</v>
       </c>
@@ -5414,7 +5413,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>44409</v>
       </c>
@@ -5434,7 +5433,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>44440</v>
       </c>
@@ -5454,7 +5453,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>44470</v>
       </c>
@@ -5474,7 +5473,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>44501</v>
       </c>
@@ -5494,7 +5493,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>44531</v>
       </c>
@@ -5514,7 +5513,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="48" t="s">
         <v>48</v>
       </c>
@@ -5532,7 +5531,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>44592</v>
       </c>
@@ -5552,7 +5551,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>44620</v>
       </c>
@@ -5572,7 +5571,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>44651</v>
       </c>
@@ -5592,7 +5591,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>44681</v>
       </c>
@@ -5612,7 +5611,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>44712</v>
       </c>
@@ -5632,7 +5631,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>44742</v>
       </c>
@@ -5652,7 +5651,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>44773</v>
       </c>
@@ -5672,7 +5671,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>44804</v>
       </c>
@@ -5692,7 +5691,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>44834</v>
       </c>
@@ -5712,7 +5711,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>44865</v>
       </c>
@@ -5732,7 +5731,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>44895</v>
       </c>
@@ -5752,7 +5751,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>44926</v>
       </c>
@@ -5776,7 +5775,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="48" t="s">
         <v>66</v>
       </c>
@@ -5794,7 +5793,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>44957</v>
       </c>
@@ -5814,7 +5813,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>44985</v>
       </c>
@@ -5834,7 +5833,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>45016</v>
       </c>
@@ -5854,7 +5853,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>45046</v>
       </c>
@@ -5874,7 +5873,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>45077</v>
       </c>
@@ -5894,7 +5893,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>45107</v>
       </c>
@@ -5914,7 +5913,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>45138</v>
       </c>
@@ -5934,7 +5933,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>45169</v>
       </c>
@@ -5954,7 +5953,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>45199</v>
       </c>
@@ -5974,71 +5973,61 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>45230</v>
       </c>
       <c r="B235" s="20"/>
-      <c r="C235" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C235" s="13"/>
       <c r="D235" s="39"/>
       <c r="E235" s="9"/>
       <c r="F235" s="20"/>
-      <c r="G235" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G235" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H235" s="39"/>
       <c r="I235" s="9"/>
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>45260</v>
       </c>
       <c r="B236" s="20"/>
-      <c r="C236" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C236" s="13"/>
       <c r="D236" s="39"/>
       <c r="E236" s="9"/>
       <c r="F236" s="20"/>
-      <c r="G236" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G236" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H236" s="39"/>
       <c r="I236" s="9"/>
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>45291</v>
       </c>
-      <c r="B237" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C237" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D237" s="39">
-        <v>5</v>
-      </c>
+      <c r="B237" s="20"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="39"/>
       <c r="E237" s="9"/>
       <c r="F237" s="20"/>
-      <c r="G237" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G237" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H237" s="39"/>
       <c r="I237" s="9"/>
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="48" t="s">
         <v>67</v>
       </c>
@@ -6056,227 +6045,205 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>45322</v>
       </c>
       <c r="B239" s="20"/>
-      <c r="C239" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C239" s="13"/>
       <c r="D239" s="39"/>
       <c r="E239" s="9"/>
       <c r="F239" s="20"/>
-      <c r="G239" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G239" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H239" s="39"/>
       <c r="I239" s="9"/>
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>45351</v>
       </c>
       <c r="B240" s="20"/>
-      <c r="C240" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C240" s="13"/>
       <c r="D240" s="39"/>
       <c r="E240" s="9"/>
       <c r="F240" s="20"/>
-      <c r="G240" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G240" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H240" s="39"/>
       <c r="I240" s="9"/>
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>45382</v>
       </c>
       <c r="B241" s="20"/>
-      <c r="C241" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C241" s="13"/>
       <c r="D241" s="39"/>
       <c r="E241" s="9"/>
       <c r="F241" s="20"/>
-      <c r="G241" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G241" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H241" s="39"/>
       <c r="I241" s="9"/>
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>45412</v>
       </c>
       <c r="B242" s="20"/>
-      <c r="C242" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C242" s="13"/>
       <c r="D242" s="39"/>
       <c r="E242" s="9"/>
       <c r="F242" s="20"/>
-      <c r="G242" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G242" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H242" s="39"/>
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>45443</v>
       </c>
       <c r="B243" s="20"/>
-      <c r="C243" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C243" s="13"/>
       <c r="D243" s="39"/>
       <c r="E243" s="9"/>
       <c r="F243" s="20"/>
-      <c r="G243" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G243" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H243" s="39"/>
       <c r="I243" s="9"/>
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>45473</v>
       </c>
       <c r="B244" s="20"/>
-      <c r="C244" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C244" s="13"/>
       <c r="D244" s="39"/>
       <c r="E244" s="9"/>
       <c r="F244" s="20"/>
-      <c r="G244" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G244" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H244" s="39"/>
       <c r="I244" s="9"/>
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>45504</v>
       </c>
       <c r="B245" s="20"/>
-      <c r="C245" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C245" s="13"/>
       <c r="D245" s="39"/>
       <c r="E245" s="9"/>
       <c r="F245" s="20"/>
-      <c r="G245" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G245" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H245" s="39"/>
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>45535</v>
       </c>
       <c r="B246" s="20"/>
-      <c r="C246" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C246" s="13"/>
       <c r="D246" s="39"/>
       <c r="E246" s="9"/>
       <c r="F246" s="20"/>
-      <c r="G246" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G246" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H246" s="39"/>
       <c r="I246" s="9"/>
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>45565</v>
       </c>
       <c r="B247" s="20"/>
-      <c r="C247" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C247" s="13"/>
       <c r="D247" s="39"/>
       <c r="E247" s="9"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G247" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H247" s="39"/>
       <c r="I247" s="9"/>
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>45596</v>
       </c>
       <c r="B248" s="20"/>
-      <c r="C248" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C248" s="13"/>
       <c r="D248" s="39"/>
       <c r="E248" s="9"/>
       <c r="F248" s="20"/>
-      <c r="G248" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G248" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H248" s="39"/>
       <c r="I248" s="9"/>
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>45599</v>
       </c>
       <c r="B249" s="20"/>
-      <c r="C249" s="13">
-        <v>0.16699999999999982</v>
-      </c>
+      <c r="C249" s="13"/>
       <c r="D249" s="39"/>
       <c r="E249" s="9"/>
       <c r="F249" s="20"/>
-      <c r="G249" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>0.16699999999999982</v>
+      <c r="G249" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H249" s="39"/>
       <c r="I249" s="9"/>
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -6292,7 +6259,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -6308,7 +6275,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -6324,7 +6291,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -6340,7 +6307,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -6356,7 +6323,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -6372,7 +6339,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -6388,7 +6355,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -6404,7 +6371,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -6420,7 +6387,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -6436,7 +6403,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -6452,7 +6419,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -6468,7 +6435,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -6484,7 +6451,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -6500,7 +6467,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -6516,7 +6483,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -6532,7 +6499,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -6548,7 +6515,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -6564,7 +6531,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
@@ -6580,7 +6547,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20"/>
       <c r="C269" s="13"/>
@@ -6596,7 +6563,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20"/>
       <c r="C270" s="13"/>
@@ -6612,7 +6579,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20"/>
       <c r="C271" s="13"/>
@@ -6628,7 +6595,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20"/>
       <c r="C272" s="13"/>
@@ -6644,7 +6611,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20"/>
       <c r="C273" s="13"/>
@@ -6660,7 +6627,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20"/>
       <c r="C274" s="13"/>
@@ -6676,7 +6643,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20"/>
       <c r="C275" s="13"/>
@@ -6692,7 +6659,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20"/>
       <c r="C276" s="13"/>
@@ -6708,7 +6675,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20"/>
       <c r="C277" s="13"/>
@@ -6724,7 +6691,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
@@ -6740,7 +6707,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20"/>
       <c r="C279" s="13"/>
@@ -6756,7 +6723,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="41"/>
       <c r="B280" s="15"/>
       <c r="C280" s="42"/>
@@ -6787,10 +6754,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6813,28 +6780,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="57" t="s">
         <v>32</v>
       </c>
@@ -6847,7 +6814,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6876,7 +6843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -6898,17 +6865,17 @@
         <v>0.16699999999999982</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6929,7 +6896,7 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6956,7 +6923,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6982,7 +6949,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7008,7 +6975,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7034,7 +7001,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7060,7 +7027,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7086,7 +7053,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7112,7 +7079,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7138,7 +7105,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7158,7 +7125,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7178,7 +7145,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7198,7 +7165,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7219,7 +7186,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7240,7 +7207,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7261,7 +7228,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7282,7 +7249,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7303,7 +7270,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7324,7 +7291,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7345,7 +7312,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7366,7 +7333,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7387,7 +7354,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7408,7 +7375,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7429,7 +7396,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7450,7 +7417,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7471,7 +7438,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7492,7 +7459,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7513,7 +7480,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7534,7 +7501,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7555,7 +7522,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7576,7 +7543,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7597,7 +7564,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7618,7 +7585,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7627,7 +7594,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7636,7 +7603,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7645,7 +7612,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7654,7 +7621,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7663,7 +7630,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7672,7 +7639,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7681,7 +7648,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7690,7 +7657,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7699,7 +7666,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7708,7 +7675,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7717,7 +7684,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7726,7 +7693,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7735,7 +7702,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7744,7 +7711,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7753,7 +7720,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7762,7 +7729,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7771,7 +7738,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7780,7 +7747,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7789,7 +7756,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7798,7 +7765,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7807,7 +7774,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7816,7 +7783,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7825,7 +7792,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7834,7 +7801,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7843,7 +7810,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7852,7 +7819,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7861,7 +7828,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7870,7 +7837,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7879,7 +7846,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
